--- a/StructureDefinition-profile-Organization.xlsx
+++ b/StructureDefinition-profile-Organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="287">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.757133-06:00</t>
+    <t>2026-02-09T22:05:43.2514497-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,38 +422,89 @@
     <t>Organization.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Organization.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Description of the organization, which helps provide additional general context on the organization to ensure that the correct organization is selected.</t>
+  </si>
+  <si>
+    <t>Element `Organization.description` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Organization.extension:qualification</t>
+  </si>
+  <si>
+    <t>qualification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Organization.qualification from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The official certifications, accreditations, training, designations and licenses that authorize and/or otherwise endorse the provision of care by the organization.++For example, an approval to provide a type of services issued by a certifying body (such as the US Joint Commission) to an organization.</t>
+  </si>
+  <si>
+    <t>Element `Organization.qualification` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -741,6 +792,9 @@
   </si>
   <si>
     <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1168,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1179,7 +1233,7 @@
   <cols>
     <col min="1" max="1" width="32.83984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1187,7 +1241,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="25.46484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.80859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2143,7 +2197,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2162,17 +2216,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2209,16 +2261,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2239,7 +2289,7 @@
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2253,43 +2303,43 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2337,7 +2387,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2346,7 +2396,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2355,7 +2405,7 @@
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2366,12 +2416,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2389,21 +2441,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2451,7 +2503,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2460,41 +2512,41 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2503,105 +2555,103 @@
         <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2624,19 +2674,17 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2661,13 +2709,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -2685,7 +2733,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2694,30 +2742,30 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2734,30 +2782,32 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="R14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2801,7 +2851,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2810,30 +2860,30 @@
         <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2853,22 +2903,22 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2893,13 +2943,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -2917,7 +2967,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -2932,24 +2982,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2960,7 +3010,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -2969,22 +3019,22 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3033,28 +3083,28 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3062,10 +3112,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3088,19 +3138,19 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3149,7 +3199,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3158,19 +3208,19 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3178,10 +3228,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3192,7 +3242,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3201,20 +3251,22 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3263,28 +3315,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK18" t="s" s="2">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3292,10 +3344,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3318,19 +3370,19 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3379,7 +3431,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3388,19 +3440,19 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3408,10 +3460,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3431,19 +3483,21 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3491,7 +3545,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3503,16 +3557,16 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3520,14 +3574,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3546,18 +3600,20 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3605,7 +3661,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3617,13 +3673,13 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -3634,46 +3690,42 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3721,25 +3773,25 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -3750,21 +3802,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -3776,18 +3828,18 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3811,13 +3863,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -3835,25 +3887,25 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -3864,43 +3916,45 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -3949,25 +4003,25 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -3978,10 +4032,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3992,7 +4046,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4004,17 +4058,17 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4039,13 +4093,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4063,13 +4117,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4078,10 +4132,10 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4092,10 +4146,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4118,17 +4172,17 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4177,7 +4231,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4192,10 +4246,10 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4206,10 +4260,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4232,17 +4286,17 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4291,7 +4345,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4306,15 +4360,243 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Organization.xlsx
+++ b/StructureDefinition-profile-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2514497-06:00</t>
+    <t>2026-02-17T14:42:26.8700381-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
     <t>Description of the organization, which helps provide additional general context on the organization to ensure that the correct organization is selected.</t>
   </si>
   <si>
-    <t>Element `Organization.description` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+    <t>Element `Organization.description` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -487,7 +487,7 @@
 For example, an approval to provide a type of services issued by a certifying body (such as the US Joint Commission) to an organization.</t>
   </si>
   <si>
-    <t>Element `Organization.qualification` is will have a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
+    <t>Element `Organization.qualification` has a context of Organization based on following the parent source element upwards and mapping to `Organization`.</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>

--- a/StructureDefinition-profile-Organization.xlsx
+++ b/StructureDefinition-profile-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8700381-06:00</t>
+    <t>2026-02-20T11:59:20.9067835-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description}
 </t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification}
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.80859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.3984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Organization.xlsx
+++ b/StructureDefinition-profile-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9067835-06:00</t>
+    <t>2026-02-21T13:36:54.3107574-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -475,7 +475,7 @@
     <t>qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.qualification|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.3984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.80859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
